--- a/Lab7-Timings.xlsx
+++ b/Lab7-Timings.xlsx
@@ -1,23 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Documents\GitHub\Lab7\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Brandon\Documents\GitHub\Lab7\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D8B09E0-E9EB-4D32-B429-9E77BC52D2B6}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027" concurrentCalc="0"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="330"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -27,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Sorting!</t>
   </si>
@@ -69,15 +75,12 @@
   </si>
   <si>
     <t>Time to Sort Size of 2 Million</t>
-  </si>
-  <si>
-    <t>nLogn</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -416,25 +419,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.58203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.58203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.58203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="32" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -445,7 +448,7 @@
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -454,7 +457,7 @@
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -477,7 +480,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -502,75 +505,129 @@
         <v>5.4412235668999998</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
+      <c r="B6">
+        <v>800000</v>
+      </c>
       <c r="C6">
         <f t="shared" ref="C6:C10" si="0">2*B6</f>
-        <v>0</v>
+        <v>1600000</v>
+      </c>
+      <c r="D6">
+        <v>8.2480899999999995</v>
       </c>
       <c r="E6">
         <f t="shared" ref="E6:E10" si="1">2*C6</f>
-        <v>0</v>
-      </c>
-      <c r="G6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+        <v>3200000</v>
+      </c>
+      <c r="F6">
+        <v>16.904399999999999</v>
+      </c>
+      <c r="G6">
+        <v>10.67412</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>4</v>
       </c>
+      <c r="B7">
+        <v>2500</v>
+      </c>
       <c r="C7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5000</v>
+      </c>
+      <c r="D7">
+        <v>17.579899999999999</v>
       </c>
       <c r="E7">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+        <v>10000</v>
+      </c>
+      <c r="F7">
+        <v>72.772900000000007</v>
+      </c>
+      <c r="G7">
+        <v>2560000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>6</v>
       </c>
+      <c r="B8">
+        <v>72000</v>
+      </c>
       <c r="C8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>144000</v>
+      </c>
+      <c r="D8">
+        <v>15.5166</v>
       </c>
       <c r="E8">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+        <v>288000</v>
+      </c>
+      <c r="F8">
+        <v>66.503</v>
+      </c>
+      <c r="G8">
+        <v>3086.42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>7</v>
       </c>
+      <c r="B9">
+        <v>15000</v>
+      </c>
       <c r="C9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>30000</v>
+      </c>
+      <c r="D9">
+        <v>16.175999999999998</v>
       </c>
       <c r="E9">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+        <v>60000</v>
+      </c>
+      <c r="F9">
+        <v>64.863200000000006</v>
+      </c>
+      <c r="G9">
+        <v>71111.111199999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>8</v>
       </c>
+      <c r="B10">
+        <v>900000</v>
+      </c>
       <c r="C10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1800000</v>
+      </c>
+      <c r="D10">
+        <v>8.1514699999999998</v>
       </c>
       <c r="E10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G10" t="s">
-        <v>14</v>
+        <f>2*C10</f>
+        <v>3600000</v>
+      </c>
+      <c r="F10">
+        <v>16.603100000000001</v>
+      </c>
+      <c r="G10">
+        <v>9.4065930000000009</v>
       </c>
     </row>
   </sheetData>
